--- a/schoolist.xlsx
+++ b/schoolist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mathu\Projects\Schools_Scrapy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CAE1FC1-ECDA-4DA8-8A11-4D0C41969073}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69927AC3-4918-416F-AE13-3A1DA80A7D01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="district" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="166">
   <si>
     <t>Trichy</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>Andanallur</t>
   </si>
 </sst>
 </file>
@@ -1332,8 +1335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>165</v>
       </c>
       <c r="C2">
         <v>25</v>
@@ -1926,7 +1929,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
